--- a/mathTransformed/HMPSTT_(2016-08-16)_30_5.xlsx
+++ b/mathTransformed/HMPSTT_(2016-08-16)_30_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H S RevatagaonIndi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Govt. High School Kambagi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Karnataka High SchoolBurnapur Road</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>S S H S GajevaniIndi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>S G R J D H S Nimbal RSIndi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -620,6 +650,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>S S H S TambaIndi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -647,6 +682,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>S M High School MulawadB Bagewadi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -674,6 +714,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. P U College for Boys(High School section)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -701,6 +746,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>T S S H S Muddebihal</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -728,6 +778,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>M D S P H S NarasalagB Bagewadi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -755,6 +810,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>GHS GaniB. Bagewadi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>vijayapu</t>
         </is>
       </c>
@@ -782,6 +842,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>N E H S NidagundiB Bagewadi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -809,6 +874,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H P S Nagaral</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -838,6 +908,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Govt. P U College for Girls</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -863,7 +938,8 @@
           <t>MANASHAYYA G</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>B D E Girls H S Vijayapur</t>
         </is>
@@ -892,6 +968,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>M D R S LachyanIndi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -921,6 +1002,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Shri Satya Saibaba High School Ghonasags</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -951,6 +1037,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>High School</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -978,6 +1069,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>D N Darbar Govt. High School</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1005,6 +1101,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Shantala H S Muddebihal</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1032,6 +1133,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Govt. S B P U College( High School Section)B Bagewadi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1059,6 +1165,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S RakkasagiMuddebihal</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1086,6 +1197,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S TambaIndi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1112,7 +1228,8 @@
           <t>SANJAYKUMAR SIDDAPPA TALAWAR</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Vijayapur</t>
         </is>
@@ -1141,6 +1258,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Shri Hanuman High School</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1170,6 +1292,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>J J H S WadawadagiB Bagewadi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1197,6 +1324,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Govt. High School devaragennur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>vijayapur</t>
         </is>
       </c>
@@ -1224,6 +1356,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Govt. High School UmaraniIndi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1251,6 +1388,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H P S Makhanapur LT-1</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1277,6 +1419,11 @@
         </is>
       </c>
       <c r="F32" t="inlineStr">
+        <is>
+          <t>Ratnapur,Tajapur(H)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>Vijayapur</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-08-16)_30_5.xlsx
+++ b/mathTransformed/HMPSTT_(2016-08-16)_30_5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>vijayapu</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -938,10 +938,9 @@
           <t>MANASHAYYA G</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>B D E Girls H S Vijayapur</t>
+          <t>Vijayapura</t>
         </is>
       </c>
     </row>
@@ -973,7 +972,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1006,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1041,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1073,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1105,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1137,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1169,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1201,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1228,10 +1227,9 @@
           <t>SANJAYKUMAR SIDDAPPA TALAWAR</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1261,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1295,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1327,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1359,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1391,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1423,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2016-08-16)_30_5.xlsx
+++ b/mathTransformed/HMPSTT_(2016-08-16)_30_5.xlsx
@@ -940,7 +940,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Vijayapura</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
